--- a/_site/Data/DisabilityCC.xlsx
+++ b/_site/Data/DisabilityCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj5Py3Fvm02Iovt/4V2BYX/b5aXqA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgrwoQDEPcJdbbHNgaBNxuMSYW4/w=="/>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +47,7 @@
     <t>Do you think you or your program/center have sufficient knowledge, skills, and  resources to provide care for the children with disabilities?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
